--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,28 @@
     <t>TIU.TIUDocument.TIUDocumentDefinitionIEN</t>
   </si>
   <si>
-    <t>AdvanceDirective.Alert,AdvanceDirective.Status,Alert.Alert,Alert.AlertType,Documents.DocumentName,Documents.DocumentType,Documents.Extension[DocumentExtension].NationalTitle,Documents.Extension[DocumentExtension].NationalTitleRole,Documents.Extension[DocumentExtension].NationalTitleService,Documents.Extension[DocumentExtension].NationalTitleSetting,Documents.Extension[DocumentExtension].NationalTitleSubject,Documents.Extension[DocumentExtension].NationalTitleType,Documents.DocumentCompletionStatus.Description,Documents.DocumentClass[VA.DocumentClass].Description,Documents.NationalTitle[VA.NationalTitle].Description,Documents.NationalTitleRole[VA.NationalTitleRole].Description,Documents.NationalTitleService[VA.NationalTitleService].Description,Documents.NationalTitleSetting[VA.NationalTitleSetting].Description,Documents.NationalTitleSubject[VA.NationalTitleSubject].Description,Documents.NationalTitleType[VA.NationalTitleType].Description,Documents.CareProvider.Description,Documents.CareProvider.Name</t>
+    <t>AdvanceDirective.Alert
+AdvanceDirective.Status
+Alert.Alert
+Alert.AlertType
+Documents.DocumentName
+Documents.DocumentType
+Documents.Extension[DocumentExtension].NationalTitle
+Documents.Extension[DocumentExtension].NationalTitleRole
+Documents.Extension[DocumentExtension].NationalTitleService
+Documents.Extension[DocumentExtension].NationalTitleSetting
+Documents.Extension[DocumentExtension].NationalTitleSubject
+Documents.Extension[DocumentExtension].NationalTitleType
+Documents.DocumentCompletionStatus.Description
+Documents.DocumentClass[VA.DocumentClass].Description
+Documents.NationalTitle[VA.NationalTitle].Description
+Documents.NationalTitleRole[VA.NationalTitleRole].Description
+Documents.NationalTitleService[VA.NationalTitleService].Description
+Documents.NationalTitleSetting[VA.NationalTitleSetting].Description
+Documents.NationalTitleSubject[VA.NationalTitleSubject].Description
+Documents.NationalTitleType[VA.NationalTitleType].Description
+Documents.CareProvider.Description
+Documents.CareProvider.Name</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1306,7 +1327,8 @@
     <t>TIU.TIUDocument.InstitutionIEN</t>
   </si>
   <si>
-    <t>AdvanceDirective.EnteredAt,Documents.EnteredAt</t>
+    <t>AdvanceDirective.EnteredAt
+Documents.EnteredAt</t>
   </si>
   <si>
     <t>Composition.custodian</t>
@@ -1678,7 +1700,9 @@
     <t>892: transform using create(Binary) on TIU DOCUMENT - REPORT TEXT (8925-2)</t>
   </si>
   <si>
-    <t>AdvanceDirective.Comments,Alert.Comments,Documents.NoteText</t>
+    <t>AdvanceDirective.Comments
+Alert.Comments
+Documents.NoteText</t>
   </si>
   <si>
     <t>document.content[n]</t>
@@ -1864,7 +1888,9 @@
     <t>TIU.TIUDocument.VisitIEN</t>
   </si>
   <si>
-    <t>AdvanceDirective.EncounterNumber,Alert.EncounterNumber,Documents.EncounterNumber</t>
+    <t>AdvanceDirective.EncounterNumber
+Alert.EncounterNumber
+Documents.EncounterNumber</t>
   </si>
   <si>
     <t>document.encounter</t>
@@ -2026,13 +2052,16 @@
   </si>
   <si>
     <t>TIU.TIUDocument.DocumentLocationIEN
-Dim.Location.LocationType,Dim.Location.LocationType</t>
-  </si>
-  <si>
-    <t>Alert.EnteredAt,Documents.Extension[DocumentExtension].PatientLocation</t>
-  </si>
-  <si>
-    <t>document.facility (&gt;4-.01),document.facility (&gt;4-99)</t>
+Dim.Location.LocationType
+Dim.Location.LocationType</t>
+  </si>
+  <si>
+    <t>Alert.EnteredAt
+Documents.Extension[DocumentExtension].PatientLocation</t>
+  </si>
+  <si>
+    <t>document.facility (&gt;4-.01)
+document.facility (&gt;4-99)</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>
@@ -2489,9 +2518,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="185.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.16015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="42.44921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="55.3671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
